--- a/买道824大促活动页面.xlsx
+++ b/买道824大促活动页面.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="880" windowWidth="28800" windowHeight="16700" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16700" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="秒杀" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="38">
   <si>
     <t>开始时间</t>
     <rPh sb="0" eb="1">
@@ -215,6 +215,19 @@
   </si>
   <si>
     <t>tuan</t>
+  </si>
+  <si>
+    <t>拼团人数</t>
+    <rPh sb="0" eb="1">
+      <t>pin</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>tuan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ren'shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -242,6 +255,7 @@
       <sz val="13"/>
       <color rgb="FF0B7500"/>
       <name val="Courier New"/>
+      <charset val="161"/>
     </font>
     <font>
       <u/>
@@ -257,6 +271,7 @@
       <sz val="13"/>
       <color rgb="FF000000"/>
       <name val="Courier New"/>
+      <charset val="161"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1209,10 +1224,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1223,7 +1238,7 @@
     <col min="4" max="4" width="31.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -1242,8 +1257,11 @@
       <c r="F1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>36</v>
       </c>
@@ -1262,8 +1280,11 @@
       <c r="F2">
         <v>9.9</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="G2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>36</v>
       </c>
@@ -1282,8 +1303,11 @@
       <c r="F3">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>36</v>
       </c>
@@ -1301,6 +1325,9 @@
       </c>
       <c r="F4">
         <v>29</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
